--- a/test_fun/phase2_results.xlsx
+++ b/test_fun/phase2_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gm20m18\Documents\SEGA23\test_fun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gm20m18\Documents\SEGA23\SEGA2023\test_fun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F974FBCC-D0EA-4723-81AF-05187BC20E1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4265051-5CC7-42FB-95D0-29AA445E4077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{D184903D-3628-40F2-8CDA-7A867DE7A294}"/>
   </bookViews>
@@ -22,7 +22,21 @@
     <definedName name="_xlchart.v1.0" hidden="1">results!$A$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">results!$A$17:$A$21</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">results!$F$1</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">results!$G$1</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">results!$G$17:$G$21</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">results!$H$1</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">results!$H$17:$H$21</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">results!$I$1</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">results!$I$17:$I$21</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">results!$J$1</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">results!$J$17:$J$21</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">results!$K$1</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">results!$K$17:$K$21</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">results!$F$17:$F$21</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">results!$L$1</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">results!$L$17:$L$21</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">results!$M$1</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">results!$M$17:$M$21</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">results!$G$1</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">results!$G$17:$G$21</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">results!$H$1</definedName>
@@ -38,59 +52,87 @@
     <definedName name="_xlchart.v1.23" hidden="1">results!$L$17:$L$21</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">results!$M$1</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">results!$M$17:$M$21</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">results!$A$12:$L$12</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">results!$A$12:$M$12</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">results!$A$13:$L$13</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">results!$A$13:$M$13</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">results!$A$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">results!$A$12:$A$16</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">results!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">results!$B$12:$B$16</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">results!$B$17:$B$21</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">results!$A$14:$L$14</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">results!$A$14:$M$14</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">results!$A$15:$L$15</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">results!$A$15:$M$15</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">results!$A$16:$L$16</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">results!$A$16:$M$16</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">results!$A$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">results!$A$12:$A$16</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">results!$B$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">results!$B$12:$B$16</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">results!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">results!$C$12:$C$16</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">results!$D$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">results!$D$12:$D$16</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">results!$E$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">results!$E$12:$E$16</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">results!$F$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">results!$F$12:$F$16</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">results!$G$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">results!$G$12:$G$16</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">results!$C$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">results!$C$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">results!$C$12:$C$16</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">results!$D$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">results!$D$12:$D$16</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">results!$E$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">results!$E$12:$E$16</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">results!$F$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">results!$F$12:$F$16</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">results!$G$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">results!$G$12:$G$16</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">results!$H$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">results!$H$12:$H$16</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">results!$I$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">results!$I$12:$I$16</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">results!$J$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">results!$J$12:$J$16</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">results!$K$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">results!$K$12:$K$16</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">results!$L$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">results!$L$12:$L$16</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">results!$C$17:$C$21</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">results!$H$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">results!$H$12:$H$16</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">results!$I$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">results!$I$12:$I$16</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">results!$J$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">results!$J$12:$J$16</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">results!$K$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">results!$K$12:$K$16</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">results!$L$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">results!$L$12:$L$16</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">results!$M$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">results!$M$12:$M$16</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">results!$A$17:$M$17</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">results!$A$18:$M$18</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">results!$A$19:$M$19</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">results!$A$20:$M$20</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">results!$A$21:$M$21</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">results!$A$12:$M$12</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">results!$A$13:$M$13</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">results!$A$14:$M$14</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">results!$D$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">results!$M$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">results!$M$12:$M$16</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">results!$A$17:$L$17</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">results!$A$17:$M$17</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">results!$A$18:$L$18</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">results!$A$18:$M$18</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">results!$A$19:$L$19</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">results!$A$19:$M$19</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">results!$A$20:$L$20</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">results!$A$20:$M$20</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">results!$A$15:$M$15</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">results!$A$16:$M$16</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">results!$A$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">results!$A$17:$A$21</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">results!$B$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">results!$B$17:$B$21</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">results!$C$1</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">results!$C$17:$C$21</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">results!$D$1</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">results!$D$17:$D$21</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">results!$D$17:$D$21</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">results!$A$21:$L$21</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">results!$A$21:$M$21</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">results!$E$1</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">results!$E$17:$E$21</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">results!$F$1</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">results!$F$17:$F$21</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">results!$G$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">results!$G$17:$G$21</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">results!$H$1</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">results!$H$17:$H$21</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">results!$I$1</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">results!$I$17:$I$21</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">results!$E$1</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">results!$J$1</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">results!$J$17:$J$21</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">results!$K$1</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">results!$K$17:$K$21</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">results!$L$1</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">results!$L$17:$L$21</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">results!$M$1</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">results!$M$17:$M$21</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">results!$A$1</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">results!$A$17:$A$21</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">results!$E$17:$E$21</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">results!$B$1</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">results!$B$17:$B$21</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">results!$C$1</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">results!$C$17:$C$21</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">results!$D$1</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">results!$D$17:$D$21</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">results!$E$1</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">results!$E$17:$E$21</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">results!$F$1</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">results!$F$17:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>tpvagenas</t>
   </si>
@@ -174,6 +216,9 @@
   </si>
   <si>
     <t>Jacobian_std</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -281,27 +326,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.27</cx:f>
+        <cx:f dir="row">_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.29</cx:f>
+        <cx:f dir="row">_xlchart.v1.58</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.31</cx:f>
+        <cx:f dir="row">_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.33</cx:f>
+        <cx:f dir="row">_xlchart.v1.60</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.35</cx:f>
+        <cx:f dir="row">_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -387,67 +432,67 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="10">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="11">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="12">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -485,7 +530,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{09A173F5-95D8-43A3-A5E3-74A1EFC40C1A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>tpvagenas</cx:v>
             </cx:txData>
           </cx:tx>
@@ -497,7 +542,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CD032E5A-633C-4E8D-B129-A229D925AFD6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>IWM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -509,7 +554,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{03C45862-1D7C-410E-8CAA-6C63EABB25B1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>chinakk</cx:v>
             </cx:txData>
           </cx:tx>
@@ -521,7 +566,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CD9700BD-446C-4ABF-B264-F4C6A39B5CD5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>amrn</cx:v>
             </cx:txData>
           </cx:tx>
@@ -533,7 +578,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3E879A4C-4CA3-4DB8-A2F8-1DB855DC10AE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>jesus.alzateg</cx:v>
             </cx:txData>
           </cx:tx>
@@ -545,7 +590,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{73D009B0-BB37-465D-81B0-137C1DE6F0DA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>2021314087u</cx:v>
             </cx:txData>
           </cx:tx>
@@ -557,7 +602,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F982868C-B9F2-4240-ACA5-04FFF3D24A34}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>zjh221149</cx:v>
             </cx:txData>
           </cx:tx>
@@ -569,7 +614,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E4BC3AD3-18A9-40A2-BB9E-23E31F42CD24}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>mohamed99</cx:v>
             </cx:txData>
           </cx:tx>
@@ -581,7 +626,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0CA92B89-C79F-4A9D-9D4B-566D63437F8A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>culrich</cx:v>
             </cx:txData>
           </cx:tx>
@@ -593,7 +638,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{338F5518-406F-4C02-9B66-747732865AF8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.54</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>OnlyCar</cx:v>
             </cx:txData>
           </cx:tx>
@@ -605,7 +650,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5AF1B20F-1844-4D33-93F7-2B45C9E365E7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>taich.brave</cx:v>
             </cx:txData>
           </cx:tx>
@@ -617,7 +662,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4DF131D3-61DD-4A14-81D6-CC0264A0CE50}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>helene</cx:v>
             </cx:txData>
           </cx:tx>
@@ -629,7 +674,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{96A359AD-04BC-415C-ACEB-EDA8FBFE192A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>MachineKim</cx:v>
             </cx:txData>
           </cx:tx>
@@ -931,27 +976,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.63</cx:f>
+        <cx:f dir="row">_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.65</cx:f>
+        <cx:f dir="row">_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.67</cx:f>
+        <cx:f dir="row">_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.69</cx:f>
+        <cx:f dir="row">_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.71</cx:f>
+        <cx:f dir="row">_xlchart.v1.56</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3489,8 +3534,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10673599" y="4040562"/>
-              <a:ext cx="4174752" cy="3290889"/>
+              <a:off x="10692089" y="4040562"/>
+              <a:ext cx="4181475" cy="3290889"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3568,7 +3613,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="46779" y="4040562"/>
-              <a:ext cx="10632423" cy="3271838"/>
+              <a:ext cx="10650913" cy="3271838"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3646,7 +3691,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="33333" y="7310999"/>
-              <a:ext cx="10634664" cy="3271838"/>
+              <a:ext cx="10653154" cy="3271838"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3723,8 +3768,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10680322" y="7274580"/>
-              <a:ext cx="4174752" cy="3290889"/>
+              <a:off x="10698812" y="7274580"/>
+              <a:ext cx="4181475" cy="3290889"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4054,10 +4099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B1E9AD-3E83-44C5-9259-2CB9881E64FC}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4981,6 +5026,90 @@
       </c>
       <c r="M21" s="7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/test_fun/phase2_results.xlsx
+++ b/test_fun/phase2_results.xlsx
@@ -1,150 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gm20m18\Documents\SEGA23\SEGA2023\test_fun\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gian/Documents/SEGA2023/test_fun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4265051-5CC7-42FB-95D0-29AA445E4077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511E711B-3A82-2843-A320-6E3BA1097DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{D184903D-3628-40F2-8CDA-7A867DE7A294}"/>
+    <workbookView xWindow="37920" yWindow="2020" windowWidth="30240" windowHeight="18000" activeTab="2" xr2:uid="{D184903D-3628-40F2-8CDA-7A867DE7A294}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
-    <sheet name="sortedResults" sheetId="4" r:id="rId2"/>
-    <sheet name="SA_p3" sheetId="2" r:id="rId3"/>
-    <sheet name="SA_p4" sheetId="3" r:id="rId4"/>
+    <sheet name="pJ" sheetId="5" r:id="rId2"/>
+    <sheet name="p3" sheetId="4" r:id="rId3"/>
+    <sheet name="p4" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'p3'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'p4'!$A$2:$I$2</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">results!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">results!$A$17:$A$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">results!$A$12:$A$16</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">results!$F$1</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">results!$G$1</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">results!$G$17:$G$21</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">results!$H$1</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">results!$H$17:$H$21</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">results!$I$1</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">results!$I$17:$I$21</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">results!$J$1</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">results!$J$17:$J$21</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">results!$K$1</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">results!$K$17:$K$21</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">results!$F$17:$F$21</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">results!$L$1</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">results!$L$17:$L$21</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">results!$M$1</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">results!$M$17:$M$21</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">results!$F$12:$F$16</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">results!$G$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">results!$G$17:$G$21</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">results!$G$12:$G$16</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">results!$H$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">results!$H$17:$H$21</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">results!$H$12:$H$16</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">results!$I$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">results!$I$17:$I$21</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">results!$I$12:$I$16</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">results!$J$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">results!$J$17:$J$21</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">results!$J$12:$J$16</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">results!$B$1</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">results!$K$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">results!$K$17:$K$21</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">results!$K$12:$K$16</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">results!$L$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">results!$L$17:$L$21</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">results!$L$12:$L$16</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">results!$M$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">results!$M$17:$M$21</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">results!$A$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">results!$A$12:$A$16</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">results!$B$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">results!$B$12:$B$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">results!$B$17:$B$21</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">results!$C$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">results!$C$12:$C$16</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">results!$D$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">results!$D$12:$D$16</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">results!$E$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">results!$E$12:$E$16</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">results!$F$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">results!$F$12:$F$16</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">results!$G$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">results!$G$12:$G$16</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">results!$M$12:$M$16</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">results!$A$17:$M$17</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">results!$A$18:$M$18</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">results!$A$19:$M$19</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">results!$A$20:$M$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">results!$B$12:$B$16</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">results!$A$21:$M$21</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">results!$A$12:$M$12</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">results!$A$13:$M$13</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">results!$A$14:$M$14</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">results!$A$15:$M$15</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">results!$A$16:$M$16</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">results!$A$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">results!$A$17:$A$21</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">results!$B$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">results!$B$17:$B$21</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">results!$C$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">results!$H$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">results!$H$12:$H$16</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">results!$I$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">results!$I$12:$I$16</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">results!$J$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">results!$J$12:$J$16</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">results!$K$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">results!$K$12:$K$16</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">results!$L$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">results!$L$12:$L$16</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">results!$C$17:$C$21</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">results!$M$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">results!$M$12:$M$16</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">results!$A$17:$M$17</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">results!$A$18:$M$18</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">results!$A$19:$M$19</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">results!$A$20:$M$20</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">results!$A$21:$M$21</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">results!$A$12:$M$12</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">results!$A$13:$M$13</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">results!$A$14:$M$14</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">results!$C$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">results!$C$17:$C$21</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">results!$D$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">results!$D$17:$D$21</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">results!$E$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">results!$E$17:$E$21</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">results!$F$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">results!$F$17:$F$21</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">results!$G$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">results!$G$17:$G$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">results!$C$12:$C$16</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">results!$H$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">results!$H$17:$H$21</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">results!$I$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">results!$I$17:$I$21</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">results!$J$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">results!$J$17:$J$21</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">results!$K$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">results!$K$17:$K$21</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">results!$L$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">results!$L$17:$L$21</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">results!$D$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">results!$A$15:$M$15</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">results!$A$16:$M$16</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">results!$A$1</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">results!$A$17:$A$21</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">results!$B$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">results!$B$17:$B$21</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">results!$C$1</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">results!$C$17:$C$21</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">results!$D$1</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">results!$D$17:$D$21</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">results!$D$17:$D$21</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">results!$E$1</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">results!$E$17:$E$21</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">results!$F$1</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">results!$F$17:$F$21</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">results!$G$1</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">results!$G$17:$G$21</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">results!$H$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">results!$H$17:$H$21</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">results!$I$1</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">results!$I$17:$I$21</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">results!$M$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">results!$M$17:$M$21</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">results!$D$12:$D$16</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">results!$E$1</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">results!$J$1</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">results!$J$17:$J$21</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">results!$K$1</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">results!$K$17:$K$21</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">results!$L$1</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">results!$L$17:$L$21</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">results!$M$1</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">results!$M$17:$M$21</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">results!$A$1</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">results!$A$17:$A$21</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">results!$E$17:$E$21</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">results!$B$1</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">results!$B$17:$B$21</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">results!$C$1</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">results!$C$17:$C$21</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">results!$D$1</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">results!$D$17:$D$21</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">results!$E$1</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">results!$E$17:$E$21</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">results!$F$1</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">results!$F$17:$F$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">results!$E$12:$E$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>tpvagenas</t>
   </si>
@@ -173,21 +134,6 @@
     <t>2021314087u</t>
   </si>
   <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>skew</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
     <t>OnlyCar</t>
   </si>
   <si>
@@ -200,25 +146,64 @@
     <t>MachineKim</t>
   </si>
   <si>
-    <t>Jacobian</t>
-  </si>
-  <si>
     <t>DSC</t>
   </si>
   <si>
     <t>HD</t>
   </si>
   <si>
-    <t>DSC_std</t>
+    <t>var vec</t>
   </si>
   <si>
-    <t>HD_std</t>
+    <t>skew vec</t>
   </si>
   <si>
-    <t>Jacobian_std</t>
+    <t>rank</t>
   </si>
   <si>
-    <t>median</t>
+    <t>FINAL RANK</t>
+  </si>
+  <si>
+    <t>mean inv elem</t>
+  </si>
+  <si>
+    <t>median JAC</t>
+  </si>
+  <si>
+    <t>var JAC</t>
+  </si>
+  <si>
+    <t>skew JAC</t>
+  </si>
+  <si>
+    <t>rank med</t>
+  </si>
+  <si>
+    <t>rank var</t>
+  </si>
+  <si>
+    <t>rank skew</t>
+  </si>
+  <si>
+    <t>final rank</t>
+  </si>
+  <si>
+    <t>rank inv elem</t>
+  </si>
+  <si>
+    <t>weights</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>median vec</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>JACOBIAN</t>
   </si>
 </sst>
 </file>
@@ -246,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +262,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -290,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,9 +295,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -326,27 +323,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.57</cx:f>
+        <cx:f dir="row">_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.58</cx:f>
+        <cx:f dir="row">_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.59</cx:f>
+        <cx:f dir="row">_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.60</cx:f>
+        <cx:f dir="row">_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.61</cx:f>
+        <cx:f dir="row">_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -432,278 +429,6 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="6">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="7">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="8">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="9">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="10">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="11">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="12">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>DSC</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>DSC</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{09A173F5-95D8-43A3-A5E3-74A1EFC40C1A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
-              <cx:v>tpvagenas</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{CD032E5A-633C-4E8D-B129-A229D925AFD6}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
-              <cx:v>IWM</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{03C45862-1D7C-410E-8CAA-6C63EABB25B1}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
-              <cx:v>chinakk</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{CD9700BD-446C-4ABF-B264-F4C6A39B5CD5}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
-              <cx:v>amrn</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3E879A4C-4CA3-4DB8-A2F8-1DB855DC10AE}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
-              <cx:v>jesus.alzateg</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{73D009B0-BB37-465D-81B0-137C1DE6F0DA}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
-              <cx:v>2021314087u</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="5"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{F982868C-B9F2-4240-ACA5-04FFF3D24A34}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
-              <cx:v>zjh221149</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="6"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{E4BC3AD3-18A9-40A2-BB9E-23E31F42CD24}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
-              <cx:v>mohamed99</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="7"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0CA92B89-C79F-4A9D-9D4B-566D63437F8A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
-              <cx:v>culrich</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="8"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{338F5518-406F-4C02-9B66-747732865AF8}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.44</cx:f>
-              <cx:v>OnlyCar</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="9"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5AF1B20F-1844-4D33-93F7-2B45C9E365E7}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>taich.brave</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="10"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4DF131D3-61DD-4A14-81D6-CC0264A0CE50}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
-              <cx:v>helene</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="11"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{96A359AD-04BC-415C-ACEB-EDA8FBFE192A}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
-              <cx:v>MachineKim</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="12"/>
-          <cx:layoutPr>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0.0500000007"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="1" min="0.75000000000000011"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="b" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
         <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
@@ -772,6 +497,278 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
+          <cx:v>DSC</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>DSC</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{09A173F5-95D8-43A3-A5E3-74A1EFC40C1A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>tpvagenas</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CD032E5A-633C-4E8D-B129-A229D925AFD6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>IWM</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{03C45862-1D7C-410E-8CAA-6C63EABB25B1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>chinakk</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CD9700BD-446C-4ABF-B264-F4C6A39B5CD5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>amrn</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3E879A4C-4CA3-4DB8-A2F8-1DB855DC10AE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>jesus.alzateg</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{73D009B0-BB37-465D-81B0-137C1DE6F0DA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>2021314087u</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F982868C-B9F2-4240-ACA5-04FFF3D24A34}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>zjh221149</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E4BC3AD3-18A9-40A2-BB9E-23E31F42CD24}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>mohamed99</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="7"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0CA92B89-C79F-4A9D-9D4B-566D63437F8A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>culrich</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="8"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{338F5518-406F-4C02-9B66-747732865AF8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>OnlyCar</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="9"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{5AF1B20F-1844-4D33-93F7-2B45C9E365E7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>taich.brave</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="10"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4DF131D3-61DD-4A14-81D6-CC0264A0CE50}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>helene</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="11"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{96A359AD-04BC-415C-ACEB-EDA8FBFE192A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>MachineKim</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="12"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.0500000007"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1" min="0.75000000000000011"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.43</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.45</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.47</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.49</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="7">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.51</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="8">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.53</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="9">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.55</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="10">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.57</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="11">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.59</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="12">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.61</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
           <cx:v>HD</cx:v>
         </cx:txData>
       </cx:tx>
@@ -802,7 +799,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E932F824-F428-49E8-9A3A-560CAD1C1C26}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>tpvagenas</cx:v>
             </cx:txData>
           </cx:tx>
@@ -814,7 +811,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F89A3A3D-BF2C-4E74-8C25-CFC0937B922F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>IWM</cx:v>
             </cx:txData>
           </cx:tx>
@@ -826,7 +823,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1EF157D5-C3B6-4DBF-978B-2C95648491D6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>chinakk</cx:v>
             </cx:txData>
           </cx:tx>
@@ -838,7 +835,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0A4F0B84-3E93-4DE8-809D-91349D9C66DF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>amrn</cx:v>
             </cx:txData>
           </cx:tx>
@@ -850,7 +847,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{845DE836-430F-4D50-BAE3-765C03064A67}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>jesus.alzateg</cx:v>
             </cx:txData>
           </cx:tx>
@@ -862,7 +859,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D476051E-C5CE-42E6-BC48-CB12D4B86009}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>2021314087u</cx:v>
             </cx:txData>
           </cx:tx>
@@ -874,7 +871,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9FF8A51E-5734-483D-85EA-9D76CF464CF0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>zjh221149</cx:v>
             </cx:txData>
           </cx:tx>
@@ -886,7 +883,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{92338B8C-E7A7-40FB-A36B-A54E6345336F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>mohamed99</cx:v>
             </cx:txData>
           </cx:tx>
@@ -898,7 +895,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EF60E37D-8D88-4F2C-B0A4-F14C2B8479A7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.52</cx:f>
               <cx:v>culrich</cx:v>
             </cx:txData>
           </cx:tx>
@@ -910,7 +907,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B3467BA8-0514-46DD-B9A3-EEF172F502CE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>OnlyCar</cx:v>
             </cx:txData>
           </cx:tx>
@@ -922,7 +919,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F0ED6F76-989A-42EE-9DD4-7585621C6C93}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>taich.brave</cx:v>
             </cx:txData>
           </cx:tx>
@@ -934,7 +931,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{326FE313-704D-4016-B810-AED74E22928E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
               <cx:v>helene</cx:v>
             </cx:txData>
           </cx:tx>
@@ -946,7 +943,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{70331300-ECAF-4F9C-BBA4-EE090C052A76}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.60</cx:f>
               <cx:v>MachineKim</cx:v>
             </cx:txData>
           </cx:tx>
@@ -976,27 +973,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.52</cx:f>
+        <cx:f dir="row">_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.53</cx:f>
+        <cx:f dir="row">_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.54</cx:f>
+        <cx:f dir="row">_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.55</cx:f>
+        <cx:f dir="row">_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.56</cx:f>
+        <cx:f dir="row">_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3491,14 +3488,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>319364</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>40062</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>728939</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>92451</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>49156</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3534,8 +3531,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10692089" y="4040562"/>
-              <a:ext cx="4181475" cy="3290889"/>
+              <a:off x="12225614" y="5812790"/>
+              <a:ext cx="4739120" cy="3241821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3555,8 +3552,8 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3569,14 +3566,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>46779</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>40062</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>184381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>324967</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>73400</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>30105</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3612,8 +3609,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="46779" y="4040562"/>
-              <a:ext cx="10650913" cy="3271838"/>
+              <a:off x="46779" y="5812790"/>
+              <a:ext cx="12184438" cy="3222770"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3633,8 +3630,8 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3647,14 +3644,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>33333</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>71999</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>313762</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>105337</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>62043</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3690,8 +3687,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="33333" y="7310999"/>
-              <a:ext cx="10653154" cy="3271838"/>
+              <a:off x="33333" y="9034159"/>
+              <a:ext cx="12186679" cy="3222770"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3711,8 +3708,8 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3725,14 +3722,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>326087</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>35580</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>179899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>735662</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>87969</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>44675</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3768,8 +3765,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10698812" y="7274580"/>
-              <a:ext cx="4181475" cy="3290889"/>
+              <a:off x="12232337" y="8997740"/>
+              <a:ext cx="4739120" cy="3241821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3789,8 +3786,8 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
-Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+                <a:t>This chart isn’t available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3803,7 +3800,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4099,15 +4096,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B1E9AD-3E83-44C5-9259-2CB9881E64FC}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4136,19 +4133,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>3.5091000000000001</v>
       </c>
@@ -4193,7 +4190,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>3.4167000000000001</v>
       </c>
@@ -4238,7 +4235,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3.3635999999999999</v>
       </c>
@@ -4283,7 +4280,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>3.6160999999999999</v>
       </c>
@@ -4328,7 +4325,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>3.5424000000000002</v>
       </c>
@@ -4373,7 +4370,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.5696</v>
       </c>
@@ -4418,7 +4415,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.57269999999999999</v>
       </c>
@@ -4463,7 +4460,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.57440000000000002</v>
       </c>
@@ -4508,7 +4505,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.56769999999999998</v>
       </c>
@@ -4553,7 +4550,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.56969999999999998</v>
       </c>
@@ -4598,7 +4595,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>0.91049999999999998</v>
       </c>
@@ -4643,7 +4640,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>0.87670000000000003</v>
       </c>
@@ -4688,7 +4685,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>0.87539999999999996</v>
       </c>
@@ -4733,7 +4730,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>0.99329000000000001</v>
       </c>
@@ -4778,7 +4775,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>0.9194</v>
       </c>
@@ -4823,7 +4820,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>6</v>
       </c>
@@ -4864,7 +4861,7 @@
         <v>2.383</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>15.1601</v>
       </c>
@@ -4905,7 +4902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>10.5853</v>
       </c>
@@ -4946,7 +4943,7 @@
         <v>4.6383000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>1.9777</v>
       </c>
@@ -4987,7 +4984,7 @@
         <v>17.029299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>2.9020000000000001</v>
       </c>
@@ -5028,89 +5025,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4</v>
-      </c>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5120,16 +5043,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC0A8E-F3D7-491F-AC6E-5E2601B6EAF5}">
-  <dimension ref="A1:R38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8953744-B940-E940-A286-F33F14E81E4B}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="B1" s="2" t="str">
         <f>results!A1</f>
         <v>tpvagenas</v>
@@ -5139,1359 +5066,831 @@
         <v>IWM</v>
       </c>
       <c r="D1" s="2" t="str">
-        <f>results!C1</f>
-        <v>chinakk</v>
-      </c>
-      <c r="E1" s="2" t="str">
         <f>results!D1</f>
         <v>amrn</v>
       </c>
-      <c r="F1" s="2" t="str">
-        <f>results!E1</f>
-        <v>jesus.alzateg</v>
-      </c>
-      <c r="G1" s="2" t="str">
-        <f>results!F1</f>
-        <v>2021314087u</v>
-      </c>
-      <c r="H1" s="2" t="str">
-        <f>results!G1</f>
-        <v>zjh221149</v>
-      </c>
-      <c r="I1" s="2" t="str">
+      <c r="E1" s="2" t="str">
         <f>results!H1</f>
         <v>mohamed99</v>
       </c>
-      <c r="J1" s="2" t="str">
-        <f>results!I1</f>
-        <v>culrich</v>
-      </c>
-      <c r="K1" s="2" t="str">
-        <f>results!J1</f>
-        <v>OnlyCar</v>
-      </c>
-      <c r="L1" s="2" t="str">
-        <f>results!K1</f>
-        <v>taich.brave</v>
-      </c>
-      <c r="M1" s="2" t="str">
+      <c r="F1" s="2" t="str">
         <f>results!L1</f>
         <v>helene</v>
       </c>
-      <c r="N1" s="2" t="str">
-        <f>results!M1</f>
-        <v>MachineKim</v>
-      </c>
-      <c r="O1" s="2">
-        <f>results!N1</f>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(results!A2:A6)</f>
+        <v>3.4895800000000001</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(results!B2:B6)</f>
+        <v>4.5630400000000009</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(results!D2:D6)</f>
+        <v>3.8541599999999994</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(results!H2:H6)</f>
+        <v>5.9811580000000006</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(results!L2:L6)</f>
+        <v>61.761960000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.RANK.AVG(B$2,$B$2:$G$2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:F3" si="0">_xlfn.RANK.AVG(C$2,$B$2:$G$2,1)</f>
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>MEDIAN(results!A7:A11)</f>
+        <v>0.56969999999999998</v>
+      </c>
+      <c r="C4">
+        <f>MEDIAN(results!B7:B11)</f>
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="D4">
+        <f>MEDIAN(results!D7:D11)</f>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E4">
+        <f>MEDIAN(results!H7:H11)</f>
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="P1" s="2">
-        <f>results!O1</f>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <f>VAR(results!A7:A11)</f>
+        <v>7.2070000000000658E-6</v>
+      </c>
+      <c r="C5">
+        <f>VAR(results!B7:B11)</f>
+        <v>1.8466999999999944E-5</v>
+      </c>
+      <c r="D5">
+        <f>VAR(results!D7:D11)</f>
+        <v>7.9119999999999981E-6</v>
+      </c>
+      <c r="E5">
+        <f>VAR(results!H7:H11)</f>
+        <v>1.6931999999999959E-5</v>
+      </c>
+      <c r="F5">
+        <f>VAR(results!L7:L11)</f>
+        <v>3033.1209166949993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0.24460000000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.1011</v>
+      </c>
+      <c r="D6">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <f>_xlfn.RANK.AVG(B$4,$B$4:$G$4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.RANK.AVG(C$4,$B$4:$G$4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.RANK.AVG(D$4,$B$4:$G$4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.RANK.AVG(E$4,$B$4:$G$4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.RANK.AVG(F$4,$B$4:$G$4,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f>_xlfn.RANK.AVG(B$5,$B$5:$G$5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:F8" si="1">_xlfn.RANK.AVG(C$5,$B$5:$G$5,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.RANK.AVG(B$6,$B$6:$G$6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:F9" si="2">_xlfn.RANK.AVG(C$6,$B$6:$G$6,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <f>0.3*B3+0.3*B7+0.25*B8+0.15*B9</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:F10" si="3">0.3*C3+0.3*C7+0.25*C8+0.15*C9</f>
+        <v>3.4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:F5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:F6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:F10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEC0A8E-F3D7-491F-AC6E-5E2601B6EAF5}">
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2.6124000000000001</v>
+      </c>
+      <c r="D3">
+        <f>RANK($C3,$C$3:$C$15,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>24.508099999999999</v>
+      </c>
+      <c r="F3">
+        <f>RANK($E3,$E$3:$E$15,1)</f>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1.0506</v>
+      </c>
+      <c r="H3">
+        <f>RANK($G3,$G$3:$G$15,1)</f>
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <f>$D$1*D3+$F$1*F3+$H$1*H3</f>
+        <v>3.25</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="D4">
+        <f>RANK($C4,$C$3:$C$15,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>22.312799999999999</v>
+      </c>
+      <c r="F4">
+        <f>RANK($E4,$E$3:$E$15,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="H4">
+        <f>RANK($G4,$G$3:$G$15,1)</f>
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <f>$D$1*D4+$F$1*F4+$H$1*H4</f>
+        <v>3.3</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.7086000000000001</v>
+      </c>
+      <c r="D5">
+        <f>RANK($C5,$C$3:$C$15,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>33.3277</v>
+      </c>
+      <c r="F5">
+        <f>RANK($E5,$E$3:$E$15,1)</f>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>0.872</v>
+      </c>
+      <c r="H5">
+        <f>RANK($G5,$G$3:$G$15,1)</f>
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <f>$D$1*D5+$F$1*F5+$H$1*H5</f>
+        <v>4.55</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4.0698999999999996</v>
+      </c>
+      <c r="D6">
+        <f>RANK($C6,$C$3:$C$15,1)</f>
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>12.679500000000001</v>
+      </c>
+      <c r="F6">
+        <f>RANK($E6,$E$3:$E$15,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.30520000000000003</v>
+      </c>
+      <c r="H6">
+        <f>RANK($G6,$G$3:$G$15,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f>$D$1*D6+$F$1*F6+$H$1*H6</f>
+        <v>5.05</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5.5389999999999997</v>
+      </c>
+      <c r="D7">
+        <f>RANK($C7,$C$3:$C$15,1)</f>
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>15.1279</v>
+      </c>
+      <c r="F7">
+        <f>RANK($E7,$E$3:$E$15,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="H7">
+        <f>RANK($G7,$G$3:$G$15,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f>$D$1*D7+$F$1*F7+$H$1*H7</f>
+        <v>5.75</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.9188999999999998</v>
+      </c>
+      <c r="D8">
+        <f>RANK($C8,$C$3:$C$15,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>56.031999999999996</v>
+      </c>
+      <c r="F8">
+        <f>RANK($E8,$E$3:$E$15,1)</f>
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="H8">
+        <f>RANK($G8,$G$3:$G$15,1)</f>
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>$D$1*D8+$F$1*F8+$H$1*H8</f>
+        <v>6.1000000000000005</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3.4022999999999999</v>
+      </c>
+      <c r="D9">
+        <f>RANK($C9,$C$3:$C$15,1)</f>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>31.447600000000001</v>
+      </c>
+      <c r="F9">
+        <f>RANK($E9,$E$3:$E$15,1)</f>
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="H9">
+        <f>RANK($G9,$G$3:$G$15,1)</f>
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <f>$D$1*D9+$F$1*F9+$H$1*H9</f>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f>RANK($C10,$C$3:$C$15,1)</f>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>40.350499999999997</v>
+      </c>
+      <c r="F10">
+        <f>RANK($E10,$E$3:$E$15,1)</f>
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>1.2608999999999999</v>
+      </c>
+      <c r="H10">
+        <f>RANK($G10,$G$3:$G$15,1)</f>
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <f>$D$1*D10+$F$1*F10+$H$1*H10</f>
+        <v>7.05</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8.4830000000000005</v>
+      </c>
+      <c r="D11">
+        <f>RANK($C11,$C$3:$C$15,1)</f>
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>25.2347</v>
+      </c>
+      <c r="F11">
+        <f>RANK($E11,$E$3:$E$15,1)</f>
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="H11">
+        <f>RANK($G11,$G$3:$G$15,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>$D$1*D11+$F$1*F11+$H$1*H11</f>
+        <v>8.15</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="2">
-        <f>results!P1</f>
-        <v>0</v>
-      </c>
-      <c r="R1" s="2">
-        <f>results!Q1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <f>results!A7</f>
-        <v>0.5696</v>
-      </c>
-      <c r="C2">
-        <f>results!B7</f>
-        <v>0.54920000000000002</v>
-      </c>
-      <c r="D2">
-        <f>results!C7</f>
-        <v>-100</v>
-      </c>
-      <c r="E2">
-        <f>results!D7</f>
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="F2">
-        <f>results!E7</f>
-        <v>-100</v>
-      </c>
-      <c r="G2">
-        <f>results!F7</f>
-        <v>-100</v>
-      </c>
-      <c r="H2">
-        <f>results!G7</f>
-        <v>-100</v>
-      </c>
-      <c r="I2">
-        <f>results!H7</f>
-        <v>0.54520000000000002</v>
-      </c>
-      <c r="J2">
-        <f>results!I7</f>
-        <v>-100</v>
-      </c>
-      <c r="K2">
-        <f>results!J7</f>
-        <v>-100</v>
-      </c>
-      <c r="L2">
-        <f>results!K7</f>
-        <v>-100</v>
-      </c>
-      <c r="M2">
-        <f>results!L7</f>
-        <v>-100</v>
-      </c>
-      <c r="N2">
-        <f>results!M7</f>
-        <v>-100</v>
-      </c>
-      <c r="O2">
-        <f>results!N2</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>results!O2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>results!P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>results!Q2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3">
-        <f>results!A8</f>
-        <v>0.57269999999999999</v>
-      </c>
-      <c r="C3">
-        <f>results!B8</f>
-        <v>0.55049999999999999</v>
-      </c>
-      <c r="D3">
-        <f>results!C8</f>
-        <v>-100</v>
-      </c>
-      <c r="E3">
-        <f>results!D8</f>
-        <v>0.56130000000000002</v>
-      </c>
-      <c r="F3">
-        <f>results!E8</f>
-        <v>-100</v>
-      </c>
-      <c r="G3">
-        <f>results!F8</f>
-        <v>-100</v>
-      </c>
-      <c r="H3">
-        <f>results!G8</f>
-        <v>-100</v>
-      </c>
-      <c r="I3">
-        <f>results!H8</f>
-        <v>0.53820000000000001</v>
-      </c>
-      <c r="J3">
-        <f>results!I8</f>
-        <v>-100</v>
-      </c>
-      <c r="K3">
-        <f>results!J8</f>
-        <v>-100</v>
-      </c>
-      <c r="L3">
-        <f>results!K8</f>
-        <v>-100</v>
-      </c>
-      <c r="M3">
-        <f>results!L8</f>
-        <v>-100</v>
-      </c>
-      <c r="N3">
-        <f>results!M8</f>
-        <v>-100</v>
-      </c>
-      <c r="O3">
-        <f>results!N3</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>results!O3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>results!P3</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f>results!Q3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4">
-        <f>results!A9</f>
-        <v>0.57440000000000002</v>
-      </c>
-      <c r="C4">
-        <f>results!B9</f>
-        <v>0.54990000000000006</v>
-      </c>
-      <c r="D4">
-        <f>results!C9</f>
-        <v>-100</v>
-      </c>
-      <c r="E4">
-        <f>results!D9</f>
-        <v>0.55530000000000002</v>
-      </c>
-      <c r="F4">
-        <f>results!E9</f>
-        <v>-100</v>
-      </c>
-      <c r="G4">
-        <f>results!F9</f>
-        <v>-100</v>
-      </c>
-      <c r="H4">
-        <f>results!G9</f>
-        <v>-100</v>
-      </c>
-      <c r="I4">
-        <f>results!H9</f>
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="J4">
-        <f>results!I9</f>
-        <v>-100</v>
-      </c>
-      <c r="K4">
-        <f>results!J9</f>
-        <v>-100</v>
-      </c>
-      <c r="L4">
-        <f>results!K9</f>
-        <v>-100</v>
-      </c>
-      <c r="M4">
-        <f>results!L9</f>
-        <v>0.55230000000000001</v>
-      </c>
-      <c r="N4">
-        <f>results!M9</f>
-        <v>-100</v>
-      </c>
-      <c r="O4">
-        <f>results!N4</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>results!O4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>results!P4</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f>results!Q4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5">
-        <f>results!A10</f>
-        <v>0.56769999999999998</v>
-      </c>
-      <c r="C5">
-        <f>results!B10</f>
-        <v>0.54</v>
-      </c>
-      <c r="D5">
-        <f>results!C10</f>
-        <v>-100</v>
-      </c>
-      <c r="E5">
-        <f>results!D10</f>
-        <v>0.5605</v>
-      </c>
-      <c r="F5">
-        <f>results!E10</f>
-        <v>-100</v>
-      </c>
-      <c r="G5">
-        <f>results!F10</f>
-        <v>-100</v>
-      </c>
-      <c r="H5">
-        <f>results!G10</f>
-        <v>-100</v>
-      </c>
-      <c r="I5">
-        <f>results!H10</f>
-        <v>0.54630000000000001</v>
-      </c>
-      <c r="J5">
-        <f>results!I10</f>
-        <v>-100</v>
-      </c>
-      <c r="K5">
-        <f>results!J10</f>
-        <v>-100</v>
-      </c>
-      <c r="L5">
-        <f>results!K10</f>
-        <v>-100</v>
-      </c>
-      <c r="M5">
-        <f>results!L10</f>
-        <v>0.54869999999999997</v>
-      </c>
-      <c r="N5">
-        <f>results!M10</f>
-        <v>-100</v>
-      </c>
-      <c r="O5">
-        <f>results!N5</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>results!O5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>results!P5</f>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f>results!Q5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6">
-        <f>results!A11</f>
-        <v>0.56969999999999998</v>
-      </c>
-      <c r="C6">
-        <f>results!B11</f>
-        <v>0.54730000000000001</v>
-      </c>
-      <c r="D6">
-        <f>results!C11</f>
-        <v>-100</v>
-      </c>
-      <c r="E6">
-        <f>results!D11</f>
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="F6">
-        <f>results!E11</f>
-        <v>-100</v>
-      </c>
-      <c r="G6">
-        <f>results!F11</f>
-        <v>-100</v>
-      </c>
-      <c r="H6">
-        <f>results!G11</f>
-        <v>-100</v>
-      </c>
-      <c r="I6">
-        <f>results!H11</f>
-        <v>0.54520000000000002</v>
-      </c>
-      <c r="J6">
-        <f>results!I11</f>
-        <v>-100</v>
-      </c>
-      <c r="K6">
-        <f>results!J11</f>
-        <v>-100</v>
-      </c>
-      <c r="L6">
-        <f>results!K11</f>
-        <v>-100</v>
-      </c>
-      <c r="M6">
-        <f>results!L11</f>
-        <v>-100</v>
-      </c>
-      <c r="N6">
-        <f>results!M11</f>
-        <v>-100</v>
-      </c>
-      <c r="O6">
-        <f>results!N6</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>results!O6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>results!P6</f>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f>results!Q6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <f>results!A12</f>
-        <v>0.91049999999999998</v>
-      </c>
-      <c r="C7">
-        <f>results!B12</f>
-        <v>0.94110000000000005</v>
-      </c>
-      <c r="D7">
-        <f>results!C12</f>
-        <v>0.92620000000000002</v>
-      </c>
-      <c r="E7">
-        <f>results!D12</f>
-        <v>0.92789999999999995</v>
-      </c>
-      <c r="F7">
-        <f>results!E12</f>
-        <v>0.94889999999999997</v>
-      </c>
-      <c r="G7">
-        <f>results!F12</f>
-        <v>0.91810000000000003</v>
-      </c>
-      <c r="H7">
-        <f>results!G12</f>
-        <v>0.91830000000000001</v>
-      </c>
-      <c r="I7">
-        <f>results!H12</f>
-        <v>0.9486</v>
-      </c>
-      <c r="J7">
-        <f>results!I12</f>
-        <v>0.88929999999999998</v>
-      </c>
-      <c r="K7">
-        <f>results!J12</f>
-        <v>0.86809999999999998</v>
-      </c>
-      <c r="L7">
-        <f>results!K12</f>
-        <v>0.85370000000000001</v>
-      </c>
-      <c r="M7">
-        <f>results!L12</f>
-        <v>0.84709999999999996</v>
-      </c>
-      <c r="N7">
-        <f>results!M12</f>
-        <v>0.91849999999999998</v>
-      </c>
-      <c r="O7">
-        <f>results!N7</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>results!O7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>results!P7</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f>results!Q7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8">
-        <f>results!A13</f>
-        <v>0.87670000000000003</v>
-      </c>
-      <c r="C8">
-        <f>results!B13</f>
-        <v>0.92520000000000002</v>
-      </c>
-      <c r="D8">
-        <f>results!C13</f>
-        <v>0.90459999999999996</v>
-      </c>
-      <c r="E8">
-        <f>results!D13</f>
-        <v>0.88739999999999997</v>
-      </c>
-      <c r="F8">
-        <f>results!E13</f>
-        <v>0.8901</v>
-      </c>
-      <c r="G8">
-        <f>results!F13</f>
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="H8">
-        <f>results!G13</f>
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="I8">
-        <f>results!H13</f>
-        <v>0.91159999999999997</v>
-      </c>
-      <c r="J8">
-        <f>results!I13</f>
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="K8">
-        <f>results!J13</f>
-        <v>0.84640000000000004</v>
-      </c>
-      <c r="L8">
-        <f>results!K13</f>
-        <v>0.9093</v>
-      </c>
-      <c r="M8">
-        <f>results!L13</f>
-        <v>0.83079999999999998</v>
-      </c>
-      <c r="N8">
-        <f>results!M13</f>
-        <v>0.93569999999999998</v>
-      </c>
-      <c r="O8">
-        <f>results!N8</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>results!O8</f>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f>results!P8</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f>results!Q8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9">
-        <f>results!A14</f>
-        <v>0.87539999999999996</v>
-      </c>
-      <c r="C9">
-        <f>results!B14</f>
-        <v>0.90459999999999996</v>
-      </c>
-      <c r="D9">
-        <f>results!C14</f>
-        <v>0.84989999999999999</v>
-      </c>
-      <c r="E9">
-        <f>results!D14</f>
-        <v>0.94720000000000004</v>
-      </c>
-      <c r="F9">
-        <f>results!E14</f>
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="G9">
-        <f>results!F14</f>
-        <v>0.93669999999999998</v>
-      </c>
-      <c r="H9">
-        <f>results!G14</f>
-        <v>0.83520000000000005</v>
-      </c>
-      <c r="I9">
-        <f>results!H14</f>
-        <v>0.90310000000000001</v>
-      </c>
-      <c r="J9">
-        <f>results!I14</f>
-        <v>0.94110000000000005</v>
-      </c>
-      <c r="K9">
-        <f>results!J14</f>
-        <v>0.89339999999999997</v>
-      </c>
-      <c r="L9">
-        <f>results!K14</f>
-        <v>0.87439999999999996</v>
-      </c>
-      <c r="M9">
-        <f>results!L14</f>
-        <v>0.76790000000000003</v>
-      </c>
-      <c r="N9">
-        <f>results!M14</f>
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="O9">
-        <f>results!N9</f>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f>results!O9</f>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f>results!P9</f>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f>results!Q9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10">
-        <f>results!A15</f>
-        <v>0.99329000000000001</v>
-      </c>
-      <c r="C10">
-        <f>results!B15</f>
-        <v>0.9143</v>
-      </c>
-      <c r="D10">
-        <f>results!C15</f>
-        <v>0.88749999999999996</v>
-      </c>
-      <c r="E10">
-        <f>results!D15</f>
-        <v>0.88919999999999999</v>
-      </c>
-      <c r="F10">
-        <f>results!E15</f>
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="G10">
-        <f>results!F15</f>
-        <v>0.88249999999999995</v>
-      </c>
-      <c r="H10">
-        <f>results!G15</f>
-        <v>0.86380000000000001</v>
-      </c>
-      <c r="I10">
-        <f>results!H15</f>
-        <v>0.93279999999999996</v>
-      </c>
-      <c r="J10">
-        <f>results!I15</f>
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="K10">
-        <f>results!J15</f>
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="L10">
-        <f>results!K15</f>
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="M10">
-        <f>results!L15</f>
-        <v>0.79810000000000003</v>
-      </c>
-      <c r="N10">
-        <f>results!M15</f>
-        <v>0.88239999999999996</v>
-      </c>
-      <c r="O10">
-        <f>results!N10</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f>results!O10</f>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f>results!P10</f>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f>results!Q10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11">
-        <f>results!A16</f>
-        <v>0.9194</v>
-      </c>
-      <c r="C11">
-        <f>results!B16</f>
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="D11">
-        <f>results!C16</f>
-        <v>0.87319999999999998</v>
-      </c>
-      <c r="E11">
-        <f>results!D16</f>
-        <v>0.9234</v>
-      </c>
-      <c r="F11">
-        <f>results!E16</f>
-        <v>0.83860000000000001</v>
-      </c>
-      <c r="G11">
-        <f>results!F16</f>
-        <v>0.87529999999999997</v>
-      </c>
-      <c r="H11">
-        <f>results!G16</f>
-        <v>0.87390000000000001</v>
-      </c>
-      <c r="I11">
-        <f>results!H16</f>
-        <v>0.90439999999999998</v>
-      </c>
-      <c r="J11">
-        <f>results!I16</f>
-        <v>0.87870000000000004</v>
-      </c>
-      <c r="K11">
-        <f>results!J16</f>
-        <v>0.90659999999999996</v>
-      </c>
-      <c r="L11">
-        <f>results!K16</f>
-        <v>0.93540000000000001</v>
-      </c>
-      <c r="M11">
-        <f>results!L16</f>
-        <v>0.83350000000000002</v>
-      </c>
-      <c r="N11">
-        <f>results!M16</f>
-        <v>0.9073</v>
-      </c>
-      <c r="O11">
-        <f>results!N11</f>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f>results!O11</f>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f>results!P11</f>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f>results!Q11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <f>results!A17</f>
+      <c r="C12" s="9">
         <v>6</v>
       </c>
-      <c r="C12">
-        <f>results!B17</f>
-        <v>1.5634999999999999</v>
-      </c>
       <c r="D12">
-        <f>results!C17</f>
-        <v>2.0017</v>
+        <f>RANK($C12,$C$3:$C$15,1)</f>
+        <v>10</v>
       </c>
       <c r="E12">
-        <f>results!D17</f>
-        <v>2.383</v>
+        <v>30.482600000000001</v>
       </c>
       <c r="F12">
-        <f>results!E17</f>
+        <f>RANK($E12,$E$3:$E$15,1)</f>
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="H12">
+        <f>RANK($G12,$G$3:$G$15,1)</f>
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <f>$D$1*D12+$F$1*F12+$H$1*H12</f>
+        <v>8.4</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5.7968000000000002</v>
+      </c>
+      <c r="D13">
+        <f>RANK($C13,$C$3:$C$15,1)</f>
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>5017.53</v>
+      </c>
+      <c r="F13">
+        <f>RANK($E13,$E$3:$E$15,1)</f>
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>1.2755000000000001</v>
+      </c>
+      <c r="H13">
+        <f>RANK($G13,$G$3:$G$15,1)</f>
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <f>$D$1*D13+$F$1*F13+$H$1*H13</f>
+        <v>10.599999999999998</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
         <v>15.8033</v>
       </c>
-      <c r="G12">
-        <f>results!F17</f>
-        <v>3.4022999999999999</v>
-      </c>
-      <c r="H12">
-        <f>results!G17</f>
-        <v>4.2325999999999997</v>
-      </c>
-      <c r="I12">
-        <f>results!H17</f>
-        <v>1.5938361883163401</v>
-      </c>
-      <c r="J12">
-        <f>results!I17</f>
-        <v>15.423999999999999</v>
-      </c>
-      <c r="K12">
-        <f>results!J17</f>
-        <v>9.9532000000000007</v>
-      </c>
-      <c r="L12">
-        <f>results!K17</f>
-        <v>10.137499999999999</v>
-      </c>
-      <c r="M12">
-        <f>results!L17</f>
-        <v>4.0628000000000002</v>
-      </c>
-      <c r="N12">
-        <f>results!M17</f>
-        <v>2.383</v>
-      </c>
-      <c r="O12">
-        <f>results!N12</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f>results!O12</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f>results!P12</f>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f>results!Q12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13">
-        <f>results!A18</f>
-        <v>15.1601</v>
-      </c>
-      <c r="C13">
-        <f>results!B18</f>
-        <v>2.383</v>
-      </c>
-      <c r="D13">
-        <f>results!C18</f>
-        <v>2.7814000000000001</v>
-      </c>
-      <c r="E13">
-        <f>results!D18</f>
-        <v>13.5647</v>
-      </c>
-      <c r="F13">
-        <f>results!E18</f>
-        <v>16.0337</v>
-      </c>
-      <c r="G13">
-        <f>results!F18</f>
-        <v>2.6187</v>
-      </c>
-      <c r="H13">
-        <f>results!G18</f>
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <f>results!H18</f>
-        <v>13.0524883270263</v>
-      </c>
-      <c r="J13">
-        <f>results!I18</f>
-        <v>2.2360000000000002</v>
-      </c>
-      <c r="K13">
-        <f>results!J18</f>
-        <v>8.8653999999999993</v>
-      </c>
-      <c r="L13">
-        <f>results!K18</f>
-        <v>2.8610000000000002</v>
-      </c>
-      <c r="M13">
-        <f>results!L18</f>
-        <v>5.7968000000000002</v>
-      </c>
-      <c r="N13">
-        <f>results!M18</f>
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <f>results!N13</f>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f>results!O13</f>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f>results!P13</f>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f>results!Q13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14">
-        <f>results!A19</f>
-        <v>10.5853</v>
-      </c>
-      <c r="C14">
-        <f>results!B19</f>
-        <v>10.762499999999999</v>
-      </c>
       <c r="D14">
-        <f>results!C19</f>
-        <v>8.9939</v>
+        <f>RANK($C14,$C$3:$C$15,1)</f>
+        <v>13</v>
       </c>
       <c r="E14">
-        <f>results!D19</f>
-        <v>1.5636000000000001</v>
+        <v>76.030900000000003</v>
       </c>
       <c r="F14">
-        <f>results!E19</f>
-        <v>2.0017</v>
+        <f>RANK($E14,$E$3:$E$15,1)</f>
+        <v>11</v>
       </c>
       <c r="G14">
-        <f>results!F19</f>
-        <v>1.8755999999999999</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="H14">
-        <f>results!G19</f>
-        <v>14.869300000000001</v>
+        <f>RANK($G14,$G$3:$G$15,1)</f>
+        <v>1</v>
       </c>
       <c r="I14">
-        <f>results!H19</f>
-        <v>10.1990699768066</v>
-      </c>
-      <c r="J14">
-        <f>results!I19</f>
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <f>results!J19</f>
-        <v>4.0698999999999996</v>
-      </c>
-      <c r="L14">
-        <f>results!K19</f>
-        <v>11.8248</v>
-      </c>
-      <c r="M14">
-        <f>results!L19</f>
-        <v>167.49</v>
-      </c>
-      <c r="N14">
-        <f>results!M19</f>
-        <v>4.6383000000000001</v>
-      </c>
-      <c r="O14">
-        <f>results!N14</f>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <f>results!O14</f>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f>results!P14</f>
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <f>results!Q14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15">
-        <f>results!A20</f>
-        <v>1.9777</v>
-      </c>
-      <c r="C15">
-        <f>results!B20</f>
-        <v>2.9188999999999998</v>
+        <f>$D$1*D14+$F$1*F14+$H$1*H14</f>
+        <v>10.700000000000001</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14.849299999999999</v>
       </c>
       <c r="D15">
-        <f>results!C20</f>
-        <v>5.5389999999999997</v>
+        <f>RANK($C15,$C$3:$C$15,1)</f>
+        <v>12</v>
       </c>
       <c r="E15">
-        <f>results!D20</f>
-        <v>5.6673999999999998</v>
+        <v>431.69990000000001</v>
       </c>
       <c r="F15">
-        <f>results!E20</f>
-        <v>5.6847000000000003</v>
+        <f>RANK($E15,$E$3:$E$15,1)</f>
+        <v>12</v>
       </c>
       <c r="G15">
-        <f>results!F20</f>
-        <v>10.5</v>
+        <v>0.95379999999999998</v>
       </c>
       <c r="H15">
-        <f>results!G20</f>
-        <v>55.366500000000002</v>
+        <f>RANK($G15,$G$3:$G$15,1)</f>
+        <v>10</v>
       </c>
       <c r="I15">
-        <f>results!H20</f>
-        <v>2.2345387935638401</v>
-      </c>
-      <c r="J15">
-        <f>results!I20</f>
-        <v>2.7088999999999999</v>
-      </c>
-      <c r="K15">
-        <f>results!J20</f>
-        <v>2.2111000000000001</v>
-      </c>
-      <c r="L15">
-        <f>results!K20</f>
-        <v>2.6187</v>
-      </c>
-      <c r="M15">
-        <f>results!L20</f>
-        <v>28.46</v>
-      </c>
-      <c r="N15">
-        <f>results!M20</f>
-        <v>17.029299999999999</v>
-      </c>
-      <c r="O15">
-        <f>results!N15</f>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f>results!O15</f>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f>results!P15</f>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f>results!Q15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16">
-        <f>results!A21</f>
-        <v>2.9020000000000001</v>
-      </c>
-      <c r="C16">
-        <f>results!B21</f>
-        <v>18.956</v>
-      </c>
-      <c r="D16">
-        <f>results!C21</f>
-        <v>11.000999999999999</v>
-      </c>
-      <c r="E16">
-        <f>results!D21</f>
-        <v>2.6124000000000001</v>
-      </c>
-      <c r="F16">
-        <f>results!E21</f>
-        <v>23.642299999999999</v>
-      </c>
-      <c r="G16">
-        <f>results!F21</f>
-        <v>14.485900000000001</v>
-      </c>
-      <c r="H16">
-        <f>results!G21</f>
-        <v>22.6495</v>
-      </c>
-      <c r="I16">
-        <f>results!H21</f>
-        <v>8.4830980300903303</v>
-      </c>
-      <c r="J16">
-        <f>results!I21</f>
-        <v>7.8739999999999997</v>
-      </c>
-      <c r="K16">
-        <f>results!J21</f>
-        <v>2.9020000000000001</v>
-      </c>
-      <c r="L16">
-        <f>results!K21</f>
-        <v>1.8755999999999999</v>
-      </c>
-      <c r="M16">
-        <f>results!L21</f>
-        <v>4.7275</v>
-      </c>
-      <c r="N16">
-        <f>results!M21</f>
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <f>results!N16</f>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f>results!O16</f>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f>results!P16</f>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <f>results!Q16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <f>_xlfn.STDEV.P(B2:B6)</f>
-        <v>2.4011663832396233E-3</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:R17" si="0">_xlfn.STDEV.P(C2:C6)</f>
-        <v>3.8436441042323305E-3</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>2.5158696309626216E-3</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>3.6804347569274975E-3</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>49.259483689498815</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <f>_xlfn.STDEV.P(B7:B11)</f>
-        <v>4.2904468951380816E-2</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18:R18" si="1">_xlfn.STDEV.P(C7:C11)</f>
-        <v>1.3600499990809181E-2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>2.6097156933275328E-2</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>2.3243097900236979E-2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>3.9396568378476812E-2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>2.368986281091558E-2</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>2.7756037181125109E-2</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>1.778358793944574E-2</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>2.3756430708336648E-2</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>2.7296300115583424E-2</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>2.9214284177436226E-2</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>2.8723398127658901E-2</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>2.0004959385112479E-2</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <f>_xlfn.STDEV.P(B12:B16)</f>
-        <v>4.9382288198907904</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ref="C19:R19" si="2">_xlfn.STDEV.P(C12:C16)</f>
-        <v>6.695195185623791</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>3.4788403314897902</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>4.4279229606667725</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
-        <v>7.7990212405403794</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>5.0157880318051724</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>18.583863417857977</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>4.4930851371511702</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>5.1635431077507237</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
-        <v>3.1849094212551763</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="2"/>
-        <v>4.2249557012588905</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>63.356382622507731</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="2"/>
-        <v>5.6815860867894976</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+        <f>$D$1*D15+$F$1*F15+$H$1*H15</f>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -6505,371 +5904,694 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C74EC3-EB1C-4B9F-9FE1-7E3B813A5911}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.21260000000000001</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>30.482600000000001</v>
-      </c>
-      <c r="D2">
-        <v>0.40679999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.55579999999999996</v>
-      </c>
-      <c r="B3">
-        <v>1.5634999999999999</v>
-      </c>
-      <c r="C3">
-        <v>56.031999999999996</v>
-      </c>
-      <c r="D3">
-        <v>0.72840000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.57489999999999997</v>
-      </c>
-      <c r="B4">
-        <v>2.0017</v>
-      </c>
-      <c r="C4">
-        <v>15.1279</v>
-      </c>
-      <c r="D4">
-        <v>0.18279999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.37119999999999997</v>
-      </c>
-      <c r="B5">
-        <v>2.383</v>
-      </c>
-      <c r="C5">
-        <v>24.508099999999999</v>
-      </c>
-      <c r="D5">
-        <v>1.0506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.6573</v>
-      </c>
-      <c r="B6">
-        <v>15.8033</v>
-      </c>
-      <c r="C6">
-        <v>76.030900000000003</v>
-      </c>
-      <c r="D6">
-        <v>-4.9599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.29970000000000002</v>
-      </c>
-      <c r="B7">
-        <v>3.4022999999999999</v>
-      </c>
-      <c r="C7">
-        <v>31.447600000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.50649999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.2208</v>
-      </c>
-      <c r="B8">
-        <v>4.2325999999999997</v>
-      </c>
-      <c r="C8">
-        <v>431.69990000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.95379999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="B9">
-        <v>1.5938000000000001</v>
-      </c>
-      <c r="C9">
-        <v>25.234500000000001</v>
-      </c>
-      <c r="D9">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9.1300000000000006E-2</v>
-      </c>
-      <c r="B10">
-        <v>15.423999999999999</v>
-      </c>
-      <c r="C10">
-        <v>33.3277</v>
-      </c>
-      <c r="D10">
-        <v>0.84199999999999997</v>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{5FEC0A8E-F3D7-491F-AC6E-5E2601B6EAF5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I15">
+      <sortCondition ref="I2:I15"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B8113E-2582-473D-95C4-68F7D690F7B9}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7252DB30-5EF2-8041-A333-BEBFEC1EE616}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D10"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.9234</v>
+      </c>
+      <c r="D3">
+        <f>RANK($C3,$C$3:$C$15,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="F3">
+        <f>RANK($E3,$E$3:$E$15,1)</f>
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>3.1829999999999997E-2</v>
+      </c>
+      <c r="H3">
+        <f>RANK($G3,$G$3:$G$15,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <f>$D$1*D3+$F$1*F3+$H$1*H3</f>
+        <v>2.6500000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="D4">
+        <f>RANK($C4,$C$3:$C$15,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F4">
+        <f>RANK($E4,$E$3:$E$15,1)</f>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0.24601000000000001</v>
+      </c>
+      <c r="H4">
+        <f>RANK($G4,$G$3:$G$15,1)</f>
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <f>$D$1*D4+$F$1*F4+$H$1*H4</f>
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="D5">
+        <f>RANK($C5,$C$3:$C$15,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F5">
+        <f>RANK($E5,$E$3:$E$15,1)</f>
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0.18694</v>
+      </c>
+      <c r="H5">
+        <f>RANK($G5,$G$3:$G$15,1)</f>
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f>$D$1*D5+$F$1*F5+$H$1*H5</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.9143</v>
+      </c>
+      <c r="D6">
+        <f>RANK($C6,$C$3:$C$15,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2.3000000000000001E-4</v>
+      </c>
+      <c r="F6">
+        <f>RANK($E6,$E$3:$E$15,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.55894999999999995</v>
+      </c>
+      <c r="H6">
+        <f>RANK($G6,$G$3:$G$15,1)</f>
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <f>$D$1*D6+$F$1*F6+$H$1*H6</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="D7">
+        <f>RANK($C7,$C$3:$C$15,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="F7">
+        <f>RANK($E7,$E$3:$E$15,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0.50255000000000005</v>
+      </c>
+      <c r="H7">
+        <f>RANK($G7,$G$3:$G$15,1)</f>
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <f>$D$1*D7+$F$1*F7+$H$1*H7</f>
+        <v>5.4499999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="D8">
+        <f>RANK($C8,$C$3:$C$15,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="F8">
+        <f>RANK($E8,$E$3:$E$15,1)</f>
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>0.64615999999999996</v>
+      </c>
+      <c r="H8">
+        <f>RANK($G8,$G$3:$G$15,1)</f>
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <f>$D$1*D8+$F$1*F8+$H$1*H8</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.9073</v>
+      </c>
+      <c r="D9">
+        <f>RANK($C9,$C$3:$C$15,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F9">
+        <f>RANK($E9,$E$3:$E$15,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0.15928</v>
+      </c>
+      <c r="H9">
+        <f>RANK($G9,$G$3:$G$15,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f>$D$1*D9+$F$1*F9+$H$1*H9</f>
+        <v>6.7499999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="D10">
+        <f>RANK($C10,$C$3:$C$15,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="F10">
+        <f>RANK($E10,$E$3:$E$15,1)</f>
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1.098E-2</v>
+      </c>
+      <c r="H10">
+        <f>RANK($G10,$G$3:$G$15,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f>$D$1*D10+$F$1*F10+$H$1*H10</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C11" s="9">
+        <v>0.9093</v>
+      </c>
+      <c r="D11">
+        <f>RANK($C11,$C$3:$C$15,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1.06E-3</v>
+      </c>
+      <c r="F11">
+        <f>RANK($E11,$E$3:$E$15,1)</f>
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G11">
+        <v>0.23097000000000001</v>
+      </c>
+      <c r="H11">
+        <f>RANK($G11,$G$3:$G$15,1)</f>
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <f>$D$1*D11+$F$1*F11+$H$1*H11</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="D12">
+        <f>RANK($C12,$C$3:$C$15,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="F12">
+        <f>RANK($E12,$E$3:$E$15,1)</f>
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>0.21826000000000001</v>
+      </c>
+      <c r="H12">
+        <f>RANK($G12,$G$3:$G$15,1)</f>
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <f>$D$1*D12+$F$1*F12+$H$1*H12</f>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="D13">
+        <f>RANK($C13,$C$3:$C$15,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F13">
+        <f>RANK($E13,$E$3:$E$15,1)</f>
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>0.81533999999999995</v>
+      </c>
+      <c r="H13">
+        <f>RANK($G13,$G$3:$G$15,1)</f>
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <f>$D$1*D13+$F$1*F13+$H$1*H13</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.84389999999999998</v>
+      </c>
+      <c r="D14">
+        <f>RANK($C14,$C$3:$C$15,0)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>18.260999999999999</v>
-      </c>
-      <c r="B2">
-        <v>0.91049999999999998</v>
-      </c>
-      <c r="C2">
-        <v>2.3E-3</v>
-      </c>
-      <c r="D2">
-        <v>0.81530000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>173.90950000000001</v>
-      </c>
-      <c r="B3">
-        <v>0.94110000000000005</v>
-      </c>
-      <c r="C3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D3">
-        <v>0.55889999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>48.775599999999997</v>
-      </c>
-      <c r="B4">
-        <v>0.92620000000000002</v>
-      </c>
-      <c r="C4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D4">
-        <v>-1.09E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>60.428400000000003</v>
-      </c>
-      <c r="B5">
-        <v>0.92789999999999995</v>
-      </c>
-      <c r="C5">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="D5">
-        <v>-3.1800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>21.534199999999998</v>
-      </c>
-      <c r="B6">
-        <v>0.94889999999999997</v>
-      </c>
-      <c r="C6">
-        <v>1.9E-3</v>
-      </c>
-      <c r="D6">
-        <v>-0.64610000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>57.945300000000003</v>
-      </c>
-      <c r="B7">
-        <v>0.91810000000000003</v>
-      </c>
-      <c r="C7">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D7">
-        <v>-0.18690000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>42.793599999999998</v>
-      </c>
-      <c r="B8">
-        <v>0.91830000000000001</v>
-      </c>
-      <c r="C8">
+      <c r="E14">
         <v>9.6000000000000002E-4</v>
       </c>
-      <c r="D8">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>102.1049</v>
-      </c>
-      <c r="B9">
-        <v>0.9486</v>
-      </c>
-      <c r="C9">
-        <v>3.8999999999999999E-4</v>
-      </c>
-      <c r="D9">
-        <v>0.50249999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>57.585999999999999</v>
-      </c>
-      <c r="B10">
-        <v>0.88929999999999998</v>
-      </c>
-      <c r="C10">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D10">
-        <v>-0.246</v>
+      <c r="F14">
+        <f>RANK($E14,$E$3:$E$15,1)</f>
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>2.6020000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <f>RANK($G14,$G$3:$G$15,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f>$D$1*D14+$F$1*F14+$H$1*H14</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.83079999999999998</v>
+      </c>
+      <c r="D15">
+        <f>RANK($C15,$C$3:$C$15,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>1.031E-3</v>
+      </c>
+      <c r="F15">
+        <f>RANK($E15,$E$3:$E$15,1)</f>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>0.54276000000000002</v>
+      </c>
+      <c r="H15">
+        <f>RANK($G15,$G$3:$G$15,1)</f>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f>$D$1*D15+$F$1*F15+$H$1*H15</f>
+        <v>11.8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <autoFilter ref="A2:I2" xr:uid="{7252DB30-5EF2-8041-A333-BEBFEC1EE616}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I15">
+      <sortCondition ref="I2:I15"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>